--- a/MGTX.xlsx
+++ b/MGTX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5313FC36-F2BD-4FAC-A149-CBB00D9E1CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32200AA7-6D88-4CA9-9D25-F43532DF73B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26520" yWindow="615" windowWidth="25080" windowHeight="18540" xr2:uid="{FABDA239-4614-4C38-9681-853B88B12919}"/>
+    <workbookView xWindow="47510" yWindow="3080" windowWidth="24440" windowHeight="16540" xr2:uid="{FABDA239-4614-4C38-9681-853B88B12919}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Price</t>
   </si>
@@ -56,9 +56,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q324</t>
-  </si>
-  <si>
     <t>PPE</t>
   </si>
   <si>
@@ -141,14 +138,33 @@
   </si>
   <si>
     <t>II</t>
+  </si>
+  <si>
+    <t>Filing?</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>Q115</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -261,14 +277,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -276,6 +291,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,215 +633,211 @@
   <dimension ref="B2:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="D2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
       <c r="I2" t="s">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>6.29</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J2" s="11">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="4"/>
       <c r="I3" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <v>78.153401000000002</v>
+        <v>79.032341000000002</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="4"/>
       <c r="I4" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="2">
         <f>+J2*J3</f>
-        <v>491.58489229000003</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+        <v>418.87140729999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
+      <c r="D5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="4"/>
       <c r="I5" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="2">
-        <v>122.873</v>
+        <f>66.5+200</f>
+        <v>266.5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="4"/>
       <c r="I6" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="2">
-        <v>72.941999999999993</v>
+        <v>75</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="4"/>
       <c r="I7" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>441.65389229000004</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+        <v>227.37140729999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
       <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="2">
+        <v>104.408</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="2">
-        <v>112.541</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I10" t="s">
+      <c r="J10" s="2">
+        <v>780.16499999999996</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="2">
-        <v>763.20399999999995</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I11" t="s">
+      <c r="J11" s="2">
+        <v>742.00300000000004</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
         <v>9</v>
-      </c>
-      <c r="J11" s="2">
-        <v>662.62300000000005</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H15" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
